--- a/generated_output/temp/pediatric-weight-for-height.xlsx
+++ b/generated_output/temp/pediatric-weight-for-height.xlsx
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Observation.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>Observation.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -276,7 +276,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -302,7 +302,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -328,7 +328,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -363,7 +363,7 @@
     <t>Observation.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -395,7 +395,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Immunization], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy]]}
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>Observation.category.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>Observation.category.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -607,7 +607,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -652,7 +652,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="vital-signs"/&gt;</t>
+    <t>vital-signs</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -688,7 +688,7 @@
     <t>Observation.category.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -817,7 +817,7 @@
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="77606-2"/&gt;</t>
+    <t>77606-2</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
@@ -832,7 +832,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -863,7 +863,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -886,7 +886,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -921,8 +921,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Often just a dateTime for Vital Signs</t>
@@ -956,7 +956,7 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -981,7 +981,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[]} {[]}
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
@@ -1047,7 +1047,7 @@
     <t>Observation.value[x].value</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -1135,7 +1135,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://unitsofmeasure.org"/&gt;</t>
+    <t>http://unitsofmeasure.org</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1163,7 +1163,7 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="%"/&gt;</t>
+    <t>%</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1241,7 +1241,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1327,7 +1327,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1355,7 +1355,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceMetric]]}
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1383,7 +1383,7 @@
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1435,7 +1435,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1524,7 +1524,7 @@
     <t>Observation.referenceRange.age</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {[]} {[]}
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
@@ -1555,7 +1555,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse], CanonicalType[http://hl7.org/fhir/StructureDefinition/MolecularSequence], CanonicalType[http://hl7.org/fhir/StructureDefinition/vitalsigns]]}
+    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1577,7 +1577,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy], CanonicalType[http://hl7.org/fhir/StructureDefinition/Media], CanonicalType[http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse], CanonicalType[http://hl7.org/fhir/StructureDefinition/MolecularSequence], CanonicalType[http://hl7.org/fhir/StructureDefinition/vitalsigns]]}
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1646,8 +1646,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}boolean {[]} {[]}integer {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Vital Sign Value recorded with UCUM</t>
@@ -1743,67 +1743,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
